--- a/All Pretty Graphs 100.xlsx
+++ b/All Pretty Graphs 100.xlsx
@@ -30,7 +30,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="data100.txt" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:hcardena:CSC:200:tictacohno:src:data100.txt">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:hcardena:CSC:200:tictacohno:src:data100.txt">
       <textFields count="8">
         <textField/>
         <textField/>
@@ -44,7 +44,7 @@
     </textPr>
   </connection>
   <connection id="2" name="data100Corrected.txt" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:hcardena:CSC:200:tictacohno:src:data100Corrected.txt">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:hcardena:CSC:200:tictacohno:src:data100Corrected.txt">
       <textFields count="8">
         <textField/>
         <textField/>
@@ -58,7 +58,7 @@
     </textPr>
   </connection>
   <connection id="3" name="TicTacOhNoData.txt" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:hcardena:CSC:200:tictacohno:src:TicTacOhNoData.txt">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:hcardena:CSC:200:tictacohno:src:TicTacOhNoData.txt">
       <textFields count="8">
         <textField/>
         <textField/>
@@ -72,7 +72,7 @@
     </textPr>
   </connection>
   <connection id="4" name="TicTacOhNoData.txt1" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:hcardena:CSC:200:tictacohno:src:TicTacOhNoData.txt">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:hcardena:CSC:200:tictacohno:src:TicTacOhNoData.txt">
       <textFields count="8">
         <textField/>
         <textField/>
@@ -218,7 +218,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -550,11 +549,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2143867688"/>
-        <c:axId val="-2146645528"/>
+        <c:axId val="2117827528"/>
+        <c:axId val="2117830488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2143867688"/>
+        <c:axId val="2117827528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -564,12 +563,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146645528"/>
+        <c:crossAx val="2117830488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2146645528"/>
+        <c:axId val="2117830488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -580,14 +579,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143867688"/>
+        <c:crossAx val="2117827528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1912,11 +1910,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2128177496"/>
-        <c:axId val="-2128178920"/>
+        <c:axId val="2118097896"/>
+        <c:axId val="2118103336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2128177496"/>
+        <c:axId val="2118097896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1926,12 +1924,12 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2128178920"/>
+        <c:crossAx val="2118103336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2128178920"/>
+        <c:axId val="2118103336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1948,7 +1946,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2128177496"/>
+        <c:crossAx val="2118097896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3236,11 +3234,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2129758536"/>
-        <c:axId val="-2122909528"/>
+        <c:axId val="2119819064"/>
+        <c:axId val="2119822056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2129758536"/>
+        <c:axId val="2119819064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3250,12 +3248,12 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2122909528"/>
+        <c:crossAx val="2119822056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2122909528"/>
+        <c:axId val="2119822056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3266,7 +3264,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2129758536"/>
+        <c:crossAx val="2119819064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3318,12 +3316,26 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1500"/>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1500"/>
-              <a:t>Expected Maximum Chain Length</a:t>
+              <a:rPr lang="en-US" sz="1500" b="0">
+                <a:latin typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>Expected</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1500" b="0" baseline="0">
+                <a:latin typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t> Maximum Chain Length</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1500" b="0">
+              <a:latin typeface="Times New Roman"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3357,10 +3369,648 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$A$2:$A$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="96"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>52.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>57.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>58.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>59.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>61.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>63.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>66.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>68.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>71.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>72.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>73.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>74.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>76.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>77.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>78.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>79.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>81.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>82.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>83.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>84.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>86.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>87.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>88.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>89.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>91.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>92.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>93.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>94.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>95.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>97.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>98.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>99.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$E$2:$E$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="96"/>
+                <c:pt idx="0">
+                  <c:v>3.95569620253164</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.43870192307692</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.91987829614604</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.35100035100035</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.77846153846153</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.10715729882733</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.43872039883672</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.73675213675213</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.01451825780906</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.29655493482309</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.48116205174761</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.76876737720111</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.98249027237354</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.19496855345912</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.42192046556741</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.55226130653266</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.722333000997009</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.93540553666828</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.03886925795053</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.16565961732124</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.33715476810839</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.45379023883696</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.61428571428571</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.718324607329841</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.84447821681864</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.93867924528302</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10.062271062271</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10.13143483023</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10.3080752212389</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10.414606741573</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10.5005440696409</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10.5698689956331</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10.6838115863562</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10.7563694267515</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10.9154550350026</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10.9429657794676</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>11.007662835249</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>11.110333692142</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>11.206570155902</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>11.2699285321605</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>11.2836538461538</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>11.4418091560948</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>11.5121681415929</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>11.5522054718034</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11.6242937853107</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>11.6993998908892</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>11.7269643866591</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>11.8459869848156</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>11.8585966791644</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>11.913140311804</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>11.9626532887402</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>11.9836779107725</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>12.0950483779169</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>12.1841671247938</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>12.2191168250419</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>12.2526670409882</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>12.3571428571428</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>12.4165751920965</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>12.4496527777777</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>12.4777715250422</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>12.5695142378559</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>12.5825942350332</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>12.6274731486715</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>12.6546478873239</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>12.7312252964426</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>12.7804590935844</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>12.8439955106621</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>12.869927737632</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>12.8835888699602</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>12.9438457175269</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>12.9732193732193</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>13.0204319906596</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>13.09988317757</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>13.1498575498575</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>13.1252759381898</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>13.1796060254924</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>13.2460796139927</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>13.2548682703321</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>13.269495412844</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>13.3121723937099</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>13.3731092436974</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>13.4198300283286</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>13.4460924130062</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>13.4657455382843</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>13.5465729349736</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>13.5711902113459</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>13.5669383003492</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>13.6138952164009</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>13.6554389839867</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>13.727066817667</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>13.7914919113241</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>13.759681093394</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>13.8020833333333</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>13.8491428571428</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>13.8679567444507</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>13.9058823529411</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Win</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
             <c:symbol val="plus"/>
             <c:size val="2"/>
             <c:spPr>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
               <a:ln>
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
@@ -3668,635 +4318,6 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet4!$E$2:$E$97</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="96"/>
-                <c:pt idx="0">
-                  <c:v>3.95569620253164</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.43870192307692</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.91987829614604</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.35100035100035</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.77846153846153</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.10715729882733</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.43872039883672</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.73675213675213</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.01451825780906</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.29655493482309</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.48116205174761</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.76876737720111</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7.98249027237354</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8.19496855345912</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8.42192046556741</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8.55226130653266</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8.722333000997009</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8.93540553666828</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>9.03886925795053</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>9.16565961732124</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>9.33715476810839</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>9.45379023883696</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>9.61428571428571</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>9.718324607329841</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>9.84447821681864</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>9.93867924528302</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>10.062271062271</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>10.13143483023</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>10.3080752212389</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>10.414606741573</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>10.5005440696409</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>10.5698689956331</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>10.6838115863562</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>10.7563694267515</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>10.9154550350026</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>10.9429657794676</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>11.007662835249</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>11.110333692142</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>11.206570155902</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>11.2699285321605</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>11.2836538461538</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>11.4418091560948</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>11.5121681415929</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>11.5522054718034</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>11.6242937853107</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>11.6993998908892</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>11.7269643866591</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>11.8459869848156</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>11.8585966791644</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>11.913140311804</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>11.9626532887402</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>11.9836779107725</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>12.0950483779169</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>12.1841671247938</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>12.2191168250419</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>12.2526670409882</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>12.3571428571428</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>12.4165751920965</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>12.4496527777777</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>12.4777715250422</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>12.5695142378559</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>12.5825942350332</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>12.6274731486715</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>12.6546478873239</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>12.7312252964426</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>12.7804590935844</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>12.8439955106621</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>12.869927737632</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>12.8835888699602</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>12.9438457175269</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>12.9732193732193</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>13.0204319906596</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>13.09988317757</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>13.1498575498575</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>13.1252759381898</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>13.1796060254924</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>13.2460796139927</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>13.2548682703321</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>13.269495412844</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>13.3121723937099</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>13.3731092436974</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>13.4198300283286</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>13.4460924130062</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>13.4657455382843</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>13.5465729349736</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>13.5711902113459</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>13.5669383003492</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>13.6138952164009</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>13.6554389839867</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>13.727066817667</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>13.7914919113241</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>13.759681093394</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>13.8020833333333</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>13.8491428571428</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>13.8679567444507</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>13.9058823529411</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet4!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Win</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="47625">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet4!$A$2:$A$97</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="96"/>
-                <c:pt idx="0">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>26.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>27.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>28.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>29.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>31.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>33.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>34.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>35.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>36.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>37.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>38.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>39.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>41.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>42.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>43.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>44.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>45.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>46.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>47.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>48.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>49.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>51.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>52.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>53.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>54.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>55.0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>56.0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>57.0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>58.0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>59.0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>61.0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>62.0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>63.0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>65.0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>66.0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>67.0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>68.0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>69.0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>71.0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>72.0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>73.0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>74.0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>75.0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>76.0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>77.0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>78.0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>79.0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>81.0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>82.0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>83.0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>84.0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>85.0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>86.0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>87.0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>88.0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>89.0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>90.0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>91.0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>92.0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>93.0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>94.0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>95.0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>96.0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>97.0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>98.0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>99.0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>100.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
               <c:f>Sheet4!$G$2:$G$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -4602,11 +4623,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2130791960"/>
-        <c:axId val="-2117757592"/>
+        <c:axId val="2129982536"/>
+        <c:axId val="2137389976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2130791960"/>
+        <c:axId val="2129982536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4616,43 +4637,29 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2117757592"/>
+        <c:crossAx val="2137389976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2117757592"/>
+        <c:axId val="2137389976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2130791960"/>
+        <c:crossAx val="2129982536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4661,33 +4668,11 @@
       <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1200"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" b="0" i="0">
-          <a:latin typeface="Times New Roman"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
@@ -4711,7 +4696,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5043,11 +5027,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2137405912"/>
-        <c:axId val="-2137407336"/>
+        <c:axId val="2117870344"/>
+        <c:axId val="2117873304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2137405912"/>
+        <c:axId val="2117870344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5057,12 +5041,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2137407336"/>
+        <c:crossAx val="2117873304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2137407336"/>
+        <c:axId val="2117873304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5073,14 +5057,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2137405912"/>
+        <c:crossAx val="2117870344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5787,11 +5770,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2132254200"/>
-        <c:axId val="-2132249224"/>
+        <c:axId val="2119775576"/>
+        <c:axId val="2119781032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2132254200"/>
+        <c:axId val="2119775576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5801,12 +5784,12 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="-2132249224"/>
+        <c:crossAx val="2119781032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2132249224"/>
+        <c:axId val="2119781032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5823,7 +5806,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2132254200"/>
+        <c:crossAx val="2119775576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5836,13 +5819,7 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:effectLst>
-      <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-        <a:prstClr val="black">
-          <a:alpha val="40000"/>
-        </a:prstClr>
-      </a:outerShdw>
-    </a:effectLst>
+    <a:effectLst/>
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
@@ -6533,11 +6510,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2133262056"/>
-        <c:axId val="-2133001368"/>
+        <c:axId val="2117905000"/>
+        <c:axId val="2117910424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2133262056"/>
+        <c:axId val="2117905000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6547,12 +6524,12 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2133001368"/>
+        <c:crossAx val="2117910424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2133001368"/>
+        <c:axId val="2117910424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6569,7 +6546,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2133262056"/>
+        <c:crossAx val="2117905000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7267,11 +7244,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2129796712"/>
-        <c:axId val="-2130688728"/>
+        <c:axId val="2117935448"/>
+        <c:axId val="2117940872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2129796712"/>
+        <c:axId val="2117935448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7281,12 +7258,12 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2130688728"/>
+        <c:crossAx val="2117940872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2130688728"/>
+        <c:axId val="2117940872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7303,7 +7280,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2129796712"/>
+        <c:crossAx val="2117935448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8012,11 +7989,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2137927160"/>
-        <c:axId val="-2137801544"/>
+        <c:axId val="2117966456"/>
+        <c:axId val="2117971896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2137927160"/>
+        <c:axId val="2117966456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8026,12 +8003,12 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2137801544"/>
+        <c:crossAx val="2117971896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2137801544"/>
+        <c:axId val="2117971896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8048,7 +8025,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2137927160"/>
+        <c:crossAx val="2117966456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8757,11 +8734,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2126889176"/>
-        <c:axId val="-2126902616"/>
+        <c:axId val="2117997352"/>
+        <c:axId val="2118002792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2126889176"/>
+        <c:axId val="2117997352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8771,12 +8748,12 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126902616"/>
+        <c:crossAx val="2118002792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2126902616"/>
+        <c:axId val="2118002792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8793,7 +8770,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126889176"/>
+        <c:crossAx val="2117997352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9502,11 +9479,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2127409128"/>
-        <c:axId val="-2127412296"/>
+        <c:axId val="2118029128"/>
+        <c:axId val="2118034568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2127409128"/>
+        <c:axId val="2118029128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9516,12 +9493,12 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127412296"/>
+        <c:crossAx val="2118034568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2127412296"/>
+        <c:axId val="2118034568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9538,7 +9515,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127409128"/>
+        <c:crossAx val="2118029128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10252,11 +10229,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2126573192"/>
-        <c:axId val="-2137369672"/>
+        <c:axId val="2118060520"/>
+        <c:axId val="2118065960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2126573192"/>
+        <c:axId val="2118060520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10266,12 +10243,12 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2137369672"/>
+        <c:crossAx val="2118065960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2137369672"/>
+        <c:axId val="2118065960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10288,7 +10265,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126573192"/>
+        <c:crossAx val="2118060520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10374,16 +10351,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10654,20 +10631,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -12275,8 +12252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -17377,7 +17354,7 @@
   <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -17409,7 +17386,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
